--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctnprox-my.sharepoint.com/personal/captain_prox_ctnprox_onmicrosoft_com/Documents/Documents/GitHub/doan1J2School/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444E44B0-70CF-4274-8D59-46BF68D4A7E0}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE9471F6-28C2-41A7-90F7-E7785FD675B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
   </bookViews>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>customer_password</t>
+  </si>
+  <si>
+    <t>customer_phone</t>
+  </si>
+  <si>
+    <t>customer_address</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,7 +578,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,178 +593,184 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>0</v>
@@ -769,21 +778,21 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctnprox-my.sharepoint.com/personal/captain_prox_ctnprox_onmicrosoft_com/Documents/Documents/GitHub/doan1J2School/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE9471F6-28C2-41A7-90F7-E7785FD675B3}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDA0843-3A86-4BE1-A9C9-4F70C6127130}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -42,24 +42,15 @@
     <t>level</t>
   </si>
   <si>
-    <t>quantily</t>
-  </si>
-  <si>
     <t>employee</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>level_name</t>
-  </si>
-  <si>
     <t>level_id</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>manufacturer</t>
   </si>
   <si>
@@ -81,88 +72,64 @@
     <t>manufacturer_id</t>
   </si>
   <si>
-    <t>manufacturer_name</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
     <t>^</t>
   </si>
   <si>
-    <t>e_id</t>
-  </si>
-  <si>
-    <t>e_name</t>
-  </si>
-  <si>
-    <t>e_phone</t>
-  </si>
-  <si>
-    <t>e_address</t>
-  </si>
-  <si>
-    <t>e_gender</t>
-  </si>
-  <si>
-    <t>e_dob(dateOfBirth)</t>
-  </si>
-  <si>
-    <t>e_email</t>
-  </si>
-  <si>
-    <t>e_password</t>
-  </si>
-  <si>
-    <t>e_level_id</t>
-  </si>
-  <si>
-    <t>p_id</t>
-  </si>
-  <si>
-    <t>p_name</t>
-  </si>
-  <si>
-    <t>p_description</t>
-  </si>
-  <si>
-    <t>p_image</t>
-  </si>
-  <si>
-    <t>p_cost</t>
-  </si>
-  <si>
-    <t>p_quantily</t>
-  </si>
-  <si>
-    <t>bill_details</t>
-  </si>
-  <si>
     <t>customer</t>
   </si>
   <si>
     <t>customer_id</t>
   </si>
   <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>customer_gender</t>
-  </si>
-  <si>
-    <t>customer_dob</t>
-  </si>
-  <si>
-    <t>customer_email</t>
-  </si>
-  <si>
-    <t>customer_password</t>
-  </si>
-  <si>
     <t>customer_phone</t>
   </si>
   <si>
     <t>customer_address</t>
+  </si>
+  <si>
+    <t>bill_detail</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>dob(dateOfBirth)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -578,7 +545,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,12 +560,12 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -608,22 +575,22 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -633,166 +600,166 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="53" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDA0843-3A86-4BE1-A9C9-4F70C6127130}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
+    <workbookView minimized="1" xWindow="-28110" yWindow="3045" windowWidth="16410" windowHeight="11295" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctnprox-my.sharepoint.com/personal/captain_prox_ctnprox_onmicrosoft_com/Documents/Documents/GitHub/doan1J2School/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDA0843-3A86-4BE1-A9C9-4F70C6127130}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8711467A-5E1C-44F8-80F8-E11C2414556C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-28110" yWindow="3045" windowWidth="16410" windowHeight="11295" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -72,12 +72,6 @@
     <t>manufacturer_id</t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
     <t>customer</t>
   </si>
   <si>
@@ -130,6 +124,18 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -191,10 +197,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,7 +221,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,6 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD75231-6A65-4360-9B4A-F43FFFFEEF8B}">
-  <dimension ref="B2:F29"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,69 +579,93 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -641,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -649,117 +682,110 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>12</v>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="D26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>31</v>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctnprox-my.sharepoint.com/personal/captain_prox_ctnprox_onmicrosoft_com/Documents/Documents/GitHub/doan1J2School/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8711467A-5E1C-44F8-80F8-E11C2414556C}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B9F7B5D-D5D0-4E6B-AC55-8FD2C2B2448A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>just note:</t>
+  </si>
+  <si>
+    <t>status name</t>
+  </si>
+  <si>
+    <t>chờ duyệt đơn</t>
+  </si>
+  <si>
+    <t>đã duyệt đơn</t>
+  </si>
+  <si>
+    <t>dã hủy đơn</t>
   </si>
 </sst>
 </file>
@@ -150,7 +168,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +187,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,11 +236,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +280,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD75231-6A65-4360-9B4A-F43FFFFEEF8B}">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -760,6 +815,7 @@
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
@@ -777,6 +833,9 @@
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -788,7 +847,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="10">
+        <v>3</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D32:E32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -283,13 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +610,7 @@
   <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -815,7 +816,7 @@
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
@@ -848,10 +849,10 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">

--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctnprox-my.sharepoint.com/personal/captain_prox_ctnprox_onmicrosoft_com/Documents/Documents/GitHub/doan1J2School/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B9F7B5D-D5D0-4E6B-AC55-8FD2C2B2448A}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C241A62-F5D5-45FC-8897-5944D7E7017B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -134,9 +133,6 @@
   </si>
   <si>
     <t>type_id</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>status</t>
@@ -609,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD75231-6A65-4360-9B4A-F43FFFFEEF8B}">
   <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,25 +638,19 @@
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
@@ -835,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -850,16 +840,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
@@ -867,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
@@ -875,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
@@ -883,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">

--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctnprox-my.sharepoint.com/personal/captain_prox_ctnprox_onmicrosoft_com/Documents/Documents/GitHub/doan1J2School/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C241A62-F5D5-45FC-8897-5944D7E7017B}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CBA0288-400E-4854-80A2-D11C53F34625}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>dã hủy đơn</t>
+  </si>
+  <si>
+    <t>rate_product</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -603,291 +612,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD75231-6A65-4360-9B4A-F43FFFFEEF8B}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="C4:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="7" max="7" width="33.75" customWidth="1"/>
+    <col min="8" max="8" width="42.75" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="F7" s="2" t="s">
+      <c r="G9" s="5"/>
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="2" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="7" t="s">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="D25" s="1" t="s">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="6"/>
+      <c r="G27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="D26" s="1" t="s">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="6"/>
+      <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="D27" s="1" t="s">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="5"/>
+      <c r="G29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="D28" s="1" t="s">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="6"/>
+      <c r="G30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="12" t="s">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="10">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="10">
         <v>1</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="1">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="10">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="10">
         <v>3</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D32:E32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/database(exel).xlsx
+++ b/Document/database(exel).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctnprox-my.sharepoint.com/personal/captain_prox_ctnprox_onmicrosoft_com/Documents/Documents/GitHub/doan1J2School/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CBA0288-400E-4854-80A2-D11C53F34625}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{49CF2EF6-1E6C-485F-9C0C-7DE89611B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D1C335C-7138-4DC2-AA82-DD35584959CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3345" windowWidth="21600" windowHeight="11295" xr2:uid="{7E7F7068-F3E1-4B23-8DAA-275A7ED629FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>manager_id</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,9 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD75231-6A65-4360-9B4A-F43FFFFEEF8B}">
   <dimension ref="C4:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I25:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -692,10 +692,10 @@
       </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
@@ -715,6 +715,9 @@
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>17</v>
       </c>
@@ -833,7 +836,7 @@
       <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="11"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
@@ -866,10 +869,10 @@
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
@@ -880,10 +883,10 @@
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -896,10 +899,10 @@
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>3</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>38</v>
       </c>
     </row>
